--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,25</t>
+          <t>2,81; 10,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,08</t>
+          <t>-1,25; 1,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,09; 1346,02</t>
+          <t>47,06; 1207,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,24</t>
+          <t>0,94; 6,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,23</t>
+          <t>0,16; 3,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,57</t>
+          <t>1,33; 6,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,28; 382,98</t>
+          <t>18,98; 376,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 1511,32</t>
+          <t>-24,18; 1428,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,3; 300,79</t>
+          <t>22,51; 284,99</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,99</t>
+          <t>-0,6; 3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,31</t>
+          <t>0,19; 5,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,69; —</t>
+          <t>-61,24; 1118,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 244,66</t>
+          <t>-2,12; 242,99</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,58</t>
+          <t>2,27; 6,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,19</t>
+          <t>0,82; 5,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,85</t>
+          <t>-0,44; 5,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>111,35; 968,57</t>
+          <t>111,73; 871,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,76; 1300,25</t>
+          <t>14,42; 1371,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 184,95</t>
+          <t>-8,99; 180,84</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 7,33</t>
+          <t>-0,96; 7,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,71</t>
+          <t>1,11; 8,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,67</t>
+          <t>1,19; 6,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 491,06</t>
+          <t>-28,15; 433,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 1523,86</t>
+          <t>-5,84; 1560,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,77; 774,59</t>
+          <t>27,75; 806,28</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,46</t>
+          <t>-0,04; 3,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,65</t>
+          <t>0,78; 6,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,45</t>
+          <t>-2,17; 4,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,43; —</t>
+          <t>-4,4; 1816,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 84,4</t>
+          <t>-24,53; 85,05</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,76</t>
+          <t>0,8; 3,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,52</t>
+          <t>0,26; 3,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,89</t>
+          <t>1,11; 6,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,34; 1146,8</t>
+          <t>26,8; 1172,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 393,84</t>
+          <t>1,66; 453,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,63; 333,59</t>
+          <t>33,43; 314,55</t>
         </is>
       </c>
     </row>
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,18</t>
+          <t>2,01; 5,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,57</t>
+          <t>1,5; 4,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,57</t>
+          <t>2,19; 6,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>115,57; 1337,46</t>
+          <t>112,83; 1333,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>82,04; 1191,15</t>
+          <t>88,23; 1212,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>78,61; 605,72</t>
+          <t>80,44; 597,68</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,86</t>
+          <t>2,19; 3,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,43</t>
+          <t>1,9; 3,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,26</t>
+          <t>2,39; 4,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>129,26; 360,9</t>
+          <t>130,69; 355,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>154,55; 465,59</t>
+          <t>136,17; 434,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>66,97; 163,98</t>
+          <t>68,21; 168,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,16</t>
+          <t>2,49; 10,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,06; 1207,5</t>
+          <t>38,48; 1199,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,28</t>
+          <t>0,9; 6,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,09</t>
+          <t>0,18; 3,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,98; 376,52</t>
+          <t>16,25; 345,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 1428,93</t>
+          <t>-39,27; 1274,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,54</t>
+          <t>-0,33; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,24; 1118,26</t>
+          <t>-51,14; 1210,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,44</t>
+          <t>2,59; 6,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,26</t>
+          <t>0,85; 5,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>111,73; 871,31</t>
+          <t>104,12; 995,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 1371,73</t>
+          <t>18,14; 1467,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,81</t>
+          <t>-1,08; 7,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,01</t>
+          <t>1,1; 8,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 433,27</t>
+          <t>-24,06; 515,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1560,96</t>
+          <t>3,38; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,71</t>
+          <t>-0,06; 3,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,24</t>
+          <t>0,75; 6,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1816,46</t>
+          <t>7,86; 1571,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,81</t>
+          <t>0,83; 3,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,78</t>
+          <t>0,06; 3,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,8; 1172,46</t>
+          <t>45,07; 1361,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 453,17</t>
+          <t>-10,62; 411,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,28</t>
+          <t>1,91; 5,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,75</t>
+          <t>1,49; 4,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>112,83; 1333,6</t>
+          <t>115,46; 1266,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>88,23; 1212,95</t>
+          <t>86,04; 1231,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,75</t>
+          <t>2,14; 3,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,34</t>
+          <t>1,9; 3,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>130,69; 355,95</t>
+          <t>126,46; 348,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>136,17; 434,88</t>
+          <t>147,68; 468,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,11</t>
+          <t>2,59; 10,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,09</t>
+          <t>-1,47; 1,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,48; 1199,47</t>
+          <t>35,09; 1346,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,0</t>
+          <t>0,99; 6,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,08</t>
+          <t>0,27; 3,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,33</t>
+          <t>1,59; 6,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,25; 345,57</t>
+          <t>20,28; 382,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 1274,16</t>
+          <t>-21,82; 1511,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,51; 284,99</t>
+          <t>33,3; 300,79</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,87</t>
+          <t>-0,32; 3,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,32</t>
+          <t>-0,1; 5,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,14; 1210,28</t>
+          <t>-58,69; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 242,99</t>
+          <t>-4,33; 244,66</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,59</t>
+          <t>2,54; 6,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,01</t>
+          <t>0,8; 5,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,89</t>
+          <t>-0,74; 5,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>104,12; 995,14</t>
+          <t>111,35; 968,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,14; 1467,29</t>
+          <t>20,76; 1300,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 180,84</t>
+          <t>-11,49; 184,95</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 7,43</t>
+          <t>-1,02; 7,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 8,09</t>
+          <t>0,65; 7,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,93</t>
+          <t>0,79; 6,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 515,54</t>
+          <t>-25,9; 491,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,38; —</t>
+          <t>-14,18; 1523,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,75; 806,28</t>
+          <t>16,77; 774,59</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,58</t>
+          <t>-0,06; 3,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,26</t>
+          <t>0,73; 6,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,23</t>
+          <t>-2,32; 4,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 1571,85</t>
+          <t>2,43; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 85,05</t>
+          <t>-26,69; 84,4</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,77</t>
+          <t>0,81; 3,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,58</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,69</t>
+          <t>1,12; 6,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,07; 1361,09</t>
+          <t>42,34; 1146,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 411,12</t>
+          <t>-9,93; 393,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,43; 314,55</t>
+          <t>30,63; 333,59</t>
         </is>
       </c>
     </row>
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,14</t>
+          <t>1,96; 5,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,72</t>
+          <t>1,51; 4,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,82</t>
+          <t>2,11; 6,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>115,46; 1266,53</t>
+          <t>115,57; 1337,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>86,04; 1231,61</t>
+          <t>82,04; 1191,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,44; 597,68</t>
+          <t>78,61; 605,72</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,78</t>
+          <t>2,18; 3,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,39</t>
+          <t>1,91; 3,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,38</t>
+          <t>2,32; 4,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>126,46; 348,79</t>
+          <t>129,26; 360,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>147,68; 468,31</t>
+          <t>154,55; 465,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>68,21; 168,16</t>
+          <t>66,97; 163,98</t>
         </is>
       </c>
     </row>
